--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134B9913-6A6C-4683-A801-9AA36EBBCE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E518AC45-14DB-42FF-BE93-8FEAE4EC82AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>在找</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工程师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -275,6 +279,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -335,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -358,6 +370,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,17 +662,17 @@
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +698,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -709,7 +724,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -735,7 +750,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -761,7 +776,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -787,7 +802,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -813,7 +828,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -839,7 +854,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -865,7 +880,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -891,7 +906,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -917,7 +932,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -943,7 +958,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -969,7 +984,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -995,7 +1010,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1036,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1062,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1088,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1114,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1125,7 +1140,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1151,7 +1166,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1192,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1218,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1244,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1270,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1281,7 +1296,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1307,7 +1322,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1333,7 +1348,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +1374,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1400,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1411,7 +1426,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1452,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1463,7 +1478,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -1489,7 +1504,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +1530,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1541,7 +1556,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1567,7 +1582,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1593,7 +1608,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1619,7 +1634,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1660,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +1686,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -1697,7 +1712,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1723,7 +1738,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1749,7 +1764,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1775,7 +1790,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -1801,7 +1816,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1827,7 +1842,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1853,7 +1868,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1879,7 +1894,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1905,7 +1920,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1931,7 +1946,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1957,7 +1972,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1983,7 +1998,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2009,7 +2024,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2035,7 +2050,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2061,7 +2076,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2087,7 +2102,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2113,7 +2128,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2139,7 +2154,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2165,7 +2180,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2191,7 +2206,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -2217,7 +2232,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2243,7 +2258,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -2269,7 +2284,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -2295,7 +2310,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2321,7 +2336,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>66</v>
       </c>
@@ -2347,7 +2362,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -2373,7 +2388,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -2399,9 +2414,13 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2421,7 +2440,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2443,7 +2462,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2465,7 +2484,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2487,7 +2506,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2509,7 +2528,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2531,7 +2550,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2553,7 +2572,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2575,7 +2594,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2597,7 +2616,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2619,7 +2638,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2641,7 +2660,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2663,7 +2682,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2685,7 +2704,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2707,7 +2726,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2729,7 +2748,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2751,7 +2770,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2773,7 +2792,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2795,7 +2814,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2817,7 +2836,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2839,7 +2858,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2861,7 +2880,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -2883,7 +2902,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2905,7 +2924,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -2927,7 +2946,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2949,7 +2968,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -2971,7 +2990,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2993,7 +3012,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3015,7 +3034,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3037,7 +3056,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3059,7 +3078,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3081,7 +3100,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3103,7 +3122,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3125,7 +3144,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3147,7 +3166,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3169,7 +3188,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3191,7 +3210,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3213,7 +3232,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3235,7 +3254,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3257,7 +3276,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3279,7 +3298,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3301,7 +3320,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3323,7 +3342,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3345,7 +3364,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3367,7 +3386,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3389,7 +3408,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3411,7 +3430,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3433,7 +3452,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3455,7 +3474,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3477,7 +3496,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3499,7 +3518,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3521,7 +3540,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3543,7 +3562,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3565,7 +3584,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3587,7 +3606,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3609,7 +3628,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3631,7 +3650,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3653,7 +3672,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3675,7 +3694,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3697,7 +3716,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3719,7 +3738,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3741,7 +3760,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3763,7 +3782,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3785,7 +3804,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3807,7 +3826,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3829,7 +3848,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3851,7 +3870,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -3873,7 +3892,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -3895,7 +3914,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -3917,7 +3936,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -3939,7 +3958,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -3961,7 +3980,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -3983,7 +4002,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4005,7 +4024,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4027,7 +4046,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4049,7 +4068,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4071,7 +4090,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4093,7 +4112,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4115,7 +4134,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4137,7 +4156,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4159,7 +4178,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4181,7 +4200,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4203,7 +4222,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4225,7 +4244,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4247,7 +4266,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4269,7 +4288,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4291,7 +4310,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4313,7 +4332,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4335,7 +4354,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4357,7 +4376,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4379,7 +4398,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4401,7 +4420,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4423,7 +4442,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4445,7 +4464,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4467,7 +4486,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4489,7 +4508,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4511,7 +4530,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4533,7 +4552,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4555,7 +4574,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4577,7 +4596,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4599,7 +4618,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4621,7 +4640,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4643,7 +4662,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4665,7 +4684,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4687,7 +4706,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4709,7 +4728,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4731,7 +4750,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4753,7 +4772,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4775,7 +4794,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4797,7 +4816,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4819,7 +4838,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4841,7 +4860,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -4863,7 +4882,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -4885,7 +4904,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -4907,7 +4926,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -4929,7 +4948,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -4951,7 +4970,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -4973,7 +4992,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -4995,7 +5014,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5017,7 +5036,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5039,7 +5058,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5061,7 +5080,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5083,7 +5102,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5105,7 +5124,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5127,7 +5146,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5149,7 +5168,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5171,7 +5190,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5193,7 +5212,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5215,7 +5234,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5237,7 +5256,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5259,7 +5278,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5281,7 +5300,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5303,7 +5322,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
